--- a/ocms/src/test/resources/TestData/FaxSLAReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxSLAReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13110" windowHeight="8040" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13110" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Report Channel</t>
   </si>
@@ -154,6 +155,56 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>OrgUnitID</t>
+  </si>
+  <si>
+    <t>QueryToGetOrgunitID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-04-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-04-2020 00:00:00
+</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT FaxLine as [Fax Line],Skill, FORMAT([dbo].[VARCHARTODATETIME] (CreatedDateTime),'dd/MM/yyyy HH:mm:ss') as [Created DateTime],
+CreatedBy as [Created By],AgentID as [Agent ID],FORMAT([dbo].[VARCHARTODATETIME] (RouteDateTime),'dd/MM/yyyy HH:mm:ss') as [Route DateTime],QueueTime as [Queue Time] FROM (SELECT JSON_VALUE(data, '$.DNIS') FaxLine,Skill,REPLACE([CreateDate]+[CreatedTime],' ','') as CreatedDateTime,CreatedBy,[Data],AgentID,
+      REPLACE([RouteDate]+[RouteTime],' ','') as RouteDateTime,
+      [dbo].[fn_CalculateFaxSLA](convert(datetime,STUFF(STUFF(STUFF(([CreateDate]+[CreatedTime]),13,0,':'),11,0,':'),9,0,' ')),
+      (case when isnull([RouteDate]+[RouteTime],'')='' then 
+      GetDate() else convert(datetime,STUFF(STUFF(STUFF(([RouteDate]+[RouteTime]),13,0,':'),11,0,':'),9,0,' ')) end),
+      JSON_VALUE(data, '$.DNIS'),'') as SLA,
+      [dbo].[SECONDSTOhhmmss](DATEDIFF(ss,convert(datetime,STUFF(STUFF(STUFF(([CreateDate]+[CreatedTime]),13,0,':'),11,0,':'),9,0,' ')),
+      (case when isnull([RouteDate]+[RouteTime],'')='' then 
+      GetDate() else convert(datetime,STUFF(STUFF(STUFF(([RouteDate]+[RouteTime]),13,0,':'),11,0,':'),9,0,' ')) end))) AS QueueTime 
+      from [dbo].[TMAC_WorkQueueHistory] 
+      WHERE RouteDate+RouteTime &gt;= 'ReportBeforeDate' AND RouteDate+RouteTime &lt;= 'ReportAfterDate' AND Channel='fax'
+      UNION
+      SELECT JSON_VALUE(data, '$.DNIS') FaxLine,Skill,REPLACE([CreateDate]+[CreatedTime],' ','') as CreatedDateTime,CreatedBy,[Data],AgentID,
+      REPLACE([RouteDate]+[RouteTime],' ','') as RouteDateTime,
+      [dbo].[fn_CalculateFaxSLA](convert(datetime,STUFF(STUFF(STUFF(([CreateDate]+[CreatedTime]),13,0,':'),11,0,':'),9,0,' ')),
+      (case when isnull([RouteDate]+[RouteTime],'')='' then 
+      GetDate() else convert(datetime,STUFF(STUFF(STUFF(([RouteDate]+[RouteTime]),13,0,':'),11,0,':'),9,0,' ')) end),
+      JSON_VALUE(data, '$.DNIS'),'') as SLA,
+      [dbo].[SECONDSTOhhmmss](DATEDIFF(ss,convert(datetime,STUFF(STUFF(STUFF(([CreateDate]+[CreatedTime]),13,0,':'),11,0,':'),9,0,' ')),
+      (case when isnull([RouteDate]+[RouteTime],'')='' then 
+      GetDate() else convert(datetime,STUFF(STUFF(STUFF(([RouteDate]+[RouteTime]),13,0,':'),11,0,':'),9,0,' ')) end))) AS QueueTime from [dbo].[TMAC_WorkQueue] 
+      WHERE CreateDate+CreatedTime &gt;= 'ReportBeforeDate' AND CreateDate+CreatedTime &lt;= 'ReportAfterDate' AND Channel='fax' 
+      ) MAIN  WHERE FaxLine IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')));
+</t>
+  </si>
+  <si>
+    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
   </si>
 </sst>
 </file>
@@ -195,11 +246,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +818,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,4 +1149,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/FaxSLAReport.xlsx
+++ b/ocms/src/test/resources/TestData/FaxSLAReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23052C24-E966-41A9-9346-2B9C2A66E864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13110" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
-    <sheet name="Queries" sheetId="8" r:id="rId8"/>
+    <sheet name="Queries" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="53">
   <si>
     <t>Report Channel</t>
   </si>
@@ -100,12 +101,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>20-04-2020 00:00:01</t>
-  </si>
-  <si>
-    <t>25-04-2020 00:00:01</t>
-  </si>
-  <si>
     <t>20-04-2020 00:00:02</t>
   </si>
   <si>
@@ -124,9 +119,6 @@
     <t>Search String2</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -139,15 +131,9 @@
     <t>Fax Line</t>
   </si>
   <si>
-    <t>7007</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -166,18 +152,23 @@
     <t>QueryToGetOrgunitID</t>
   </si>
   <si>
-    <t xml:space="preserve">27-04-2020 00:00:00
+    <t>48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';
 </t>
   </si>
   <si>
-    <t xml:space="preserve">28-04-2020 00:00:00
-</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT FaxLine as [Fax Line],Skill, FORMAT([dbo].[VARCHARTODATETIME] (CreatedDateTime),'dd/MM/yyyy HH:mm:ss') as [Created DateTime],
+    <t>50027</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>SELECT FaxLine as [Fax Line],Skill, FORMAT([dbo].[VARCHARTODATETIME] (CreatedDateTime),'dd/MM/yyyy HH:mm:ss') as [Created DateTime],
 CreatedBy as [Created By],AgentID as [Agent ID],FORMAT([dbo].[VARCHARTODATETIME] (RouteDateTime),'dd/MM/yyyy HH:mm:ss') as [Route DateTime],QueueTime as [Queue Time] FROM (SELECT JSON_VALUE(data, '$.DNIS') FaxLine,Skill,REPLACE([CreateDate]+[CreatedTime],' ','') as CreatedDateTime,CreatedBy,[Data],AgentID,
       REPLACE([RouteDate]+[RouteTime],' ','') as RouteDateTime,
       [dbo].[fn_CalculateFaxSLA](convert(datetime,STUFF(STUFF(STUFF(([CreateDate]+[CreatedTime]),13,0,':'),11,0,':'),9,0,' ')),
@@ -200,17 +191,32 @@
       (case when isnull([RouteDate]+[RouteTime],'')='' then 
       GetDate() else convert(datetime,STUFF(STUFF(STUFF(([RouteDate]+[RouteTime]),13,0,':'),11,0,':'),9,0,' ')) end))) AS QueueTime from [dbo].[TMAC_WorkQueue] 
       WHERE CreateDate+CreatedTime &gt;= 'ReportBeforeDate' AND CreateDate+CreatedTime &lt;= 'ReportAfterDate' AND Channel='fax' 
-      ) MAIN  WHERE FaxLine IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')));
-</t>
-  </si>
-  <si>
-    <t>Select TeamID as OrgUnitID from AGT_TEAMS where Teamname='XXXX';</t>
+      ) MAIN  WHERE FaxLine IN (SELECT DISTINCT DNIS FROM Fax_Dnis WHERE OrgUnit in (SELECT DISTINCT TeamID FROM [fn_Generic_AgentHierarchy]('orgunit','OrgUnitID','')))
+	  order by [Route DateTime] ASC;</t>
+  </si>
+  <si>
+    <t>20-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-11-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>7019</t>
+  </si>
+  <si>
+    <t>701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,22 +252,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,30 +538,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,12 +578,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -599,25 +602,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,82 +647,82 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -727,35 +731,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -765,22 +816,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,12 +845,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -814,22 +865,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,21 +897,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -869,23 +920,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,12 +953,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -916,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -925,23 +976,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,24 +1012,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -987,24 +1038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,18 +1082,18 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1053,27 +1105,27 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1085,7 +1137,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -1094,24 +1146,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1120,24 +1172,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1146,31 +1198,84 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1187,39 +1292,39 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
